--- a/data/trans_orig/P36BPD08_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF75D5B-1235-4D2F-A853-1178F00EBD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE11536-CC4C-4F27-813B-1372CA243DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BACFDD2-9B2C-4B9E-AEA6-4FED53AD0801}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DF39211-0EA1-4505-8648-54CC09B5FD87}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="251">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>90,67%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
@@ -104,529 +104,535 @@
     <t>4,07%</t>
   </si>
   <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>Siete o más vasos a la semana</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>Siete o más vasos a la semana</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -635,142 +641,151 @@
     <t>76,06%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>91,92%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1185,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C022C67B-E903-4FCA-89F2-37D0F7D9F325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A07DD0E-2D83-4096-A42C-19D3E53A9DF2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1542,7 +1557,7 @@
         <v>1029</v>
       </c>
       <c r="N8" s="7">
-        <v>994716</v>
+        <v>994717</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1551,7 +1566,7 @@
         <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,13 +1581,13 @@
         <v>48219</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -1581,13 +1596,13 @@
         <v>16876</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -1596,13 +1611,13 @@
         <v>65095</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1632,13 @@
         <v>9790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1632,13 +1647,13 @@
         <v>2150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1650,10 +1665,10 @@
         <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,7 +1710,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1071751</v>
+        <v>1071752</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1709,7 +1724,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1721,13 +1736,13 @@
         <v>280359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>527</v>
@@ -1736,13 +1751,13 @@
         <v>367000</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>832</v>
@@ -1751,13 +1766,13 @@
         <v>647359</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,13 +1787,13 @@
         <v>17995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1787,13 +1802,13 @@
         <v>3033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -1802,13 +1817,13 @@
         <v>21028</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1838,13 @@
         <v>22694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1838,13 +1853,13 @@
         <v>3251</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -1853,13 +1868,13 @@
         <v>25945</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,10 +2011,10 @@
         <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -2008,13 +2023,13 @@
         <v>20642</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2044,13 @@
         <v>15495</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2044,13 +2059,13 @@
         <v>2385</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -2059,13 +2074,13 @@
         <v>17880</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,7 +2136,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2133,13 +2148,13 @@
         <v>170496</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>467</v>
@@ -2148,13 +2163,13 @@
         <v>219960</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>709</v>
@@ -2163,13 +2178,13 @@
         <v>390456</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2199,13 @@
         <v>8523</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -2199,13 +2214,13 @@
         <v>5464</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -2214,13 +2229,13 @@
         <v>13988</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2250,13 @@
         <v>16978</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2250,13 +2265,13 @@
         <v>6072</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -2265,13 +2280,13 @@
         <v>23050</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,7 +2342,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2339,13 +2354,13 @@
         <v>251642</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>451</v>
@@ -2354,13 +2369,13 @@
         <v>270445</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>779</v>
@@ -2372,10 +2387,10 @@
         <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2405,13 @@
         <v>10789</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2405,13 +2420,13 @@
         <v>2190</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2420,13 +2435,13 @@
         <v>12979</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,10 +2456,10 @@
         <v>14791</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>166</v>
@@ -2459,10 +2474,10 @@
         <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -2471,13 +2486,13 @@
         <v>17778</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2548,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2560,13 @@
         <v>583246</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>923</v>
@@ -2560,13 +2575,13 @@
         <v>783326</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M28" s="7">
         <v>1470</v>
@@ -2575,13 +2590,13 @@
         <v>1366572</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2611,13 @@
         <v>24935</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -2611,13 +2626,13 @@
         <v>11869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -2626,13 +2641,13 @@
         <v>36804</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2662,13 @@
         <v>17335</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -2662,13 +2677,13 @@
         <v>8848</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -2677,13 +2692,13 @@
         <v>26183</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2754,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2751,13 +2766,13 @@
         <v>652759</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>996</v>
@@ -2766,13 +2781,13 @@
         <v>812931</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>1563</v>
@@ -2781,13 +2796,13 @@
         <v>1465690</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2817,13 @@
         <v>28435</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -2817,13 +2832,13 @@
         <v>21229</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="M33" s="7">
         <v>51</v>
@@ -2832,13 +2847,13 @@
         <v>49665</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2868,13 @@
         <v>177043</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>39</v>
@@ -2868,13 +2883,13 @@
         <v>33632</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>208</v>
@@ -2883,13 +2898,13 @@
         <v>210675</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2972,13 @@
         <v>2923723</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>5163</v>
@@ -2972,28 +2987,28 @@
         <v>3674887</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M36" s="7">
         <v>8039</v>
       </c>
       <c r="N36" s="7">
-        <v>6598611</v>
+        <v>6598612</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3023,13 @@
         <v>164686</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>105</v>
@@ -3023,13 +3038,13 @@
         <v>68346</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>270</v>
@@ -3038,13 +3053,13 @@
         <v>233032</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3074,13 @@
         <v>287817</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>91</v>
@@ -3074,13 +3089,13 @@
         <v>62332</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>416</v>
@@ -3089,13 +3104,13 @@
         <v>350150</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,7 +3152,7 @@
         <v>8725</v>
       </c>
       <c r="N39" s="7">
-        <v>7181793</v>
+        <v>7181794</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -3151,7 +3166,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD08_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE11536-CC4C-4F27-813B-1372CA243DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4239028C-848C-48B4-ACFC-74CE0E5A8A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DF39211-0EA1-4505-8648-54CC09B5FD87}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{81A28D38-EF95-48AB-B140-40D87E96EBB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="242">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -71,721 +71,694 @@
     <t>Menos de tres vasos a la semana</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>De tres a menos de 7 vasos a la semana</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>Siete o más vasos a la semana</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,43%</t>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>De tres a menos de 7 vasos a la semana</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>Siete o más vasos a la semana</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1200,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A07DD0E-2D83-4096-A42C-19D3E53A9DF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2885D3AF-A892-40CE-9659-17E2D85E49A0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1321,7 +1294,7 @@
         <v>296</v>
       </c>
       <c r="D4" s="7">
-        <v>236013</v>
+        <v>284884</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1336,7 +1309,7 @@
         <v>523</v>
       </c>
       <c r="I4" s="7">
-        <v>265683</v>
+        <v>283684</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1351,7 +1324,7 @@
         <v>819</v>
       </c>
       <c r="N4" s="7">
-        <v>501695</v>
+        <v>568567</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1372,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>10594</v>
+        <v>11719</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1387,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>2238</v>
+        <v>2351</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1402,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>12832</v>
+        <v>14070</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1423,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>13691</v>
+        <v>14840</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1438,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>3007</v>
+        <v>3102</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1447,22 +1420,22 @@
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
       </c>
       <c r="N6" s="7">
-        <v>16698</v>
+        <v>17941</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,51 +1447,51 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>537</v>
       </c>
       <c r="I7" s="7">
-        <v>270929</v>
+        <v>289137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>868</v>
       </c>
       <c r="N7" s="7">
-        <v>531226</v>
+        <v>600579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1527,46 +1500,46 @@
         <v>340</v>
       </c>
       <c r="D8" s="7">
-        <v>459899</v>
+        <v>457359</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>689</v>
       </c>
       <c r="I8" s="7">
-        <v>534818</v>
+        <v>496638</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>1029</v>
       </c>
       <c r="N8" s="7">
-        <v>994717</v>
+        <v>953996</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,46 +1551,46 @@
         <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>48219</v>
+        <v>50517</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
       </c>
       <c r="I9" s="7">
-        <v>16876</v>
+        <v>15658</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
       </c>
       <c r="N9" s="7">
-        <v>65095</v>
+        <v>66175</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,46 +1602,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>9790</v>
+        <v>9194</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2150</v>
+        <v>2016</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>11940</v>
+        <v>11210</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,51 +1653,51 @@
         <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>517908</v>
+        <v>517070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>716</v>
       </c>
       <c r="I11" s="7">
-        <v>553844</v>
+        <v>514311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1071752</v>
+        <v>1031381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1733,46 +1706,46 @@
         <v>305</v>
       </c>
       <c r="D12" s="7">
-        <v>280359</v>
+        <v>275724</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>527</v>
       </c>
       <c r="I12" s="7">
-        <v>367000</v>
+        <v>343275</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>832</v>
       </c>
       <c r="N12" s="7">
-        <v>647359</v>
+        <v>618999</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,46 +1757,46 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>17995</v>
+        <v>17431</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>3033</v>
+        <v>2817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>21028</v>
+        <v>20247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,46 +1808,46 @@
         <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>22694</v>
+        <v>21689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>3251</v>
+        <v>3036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
       </c>
       <c r="N14" s="7">
-        <v>25945</v>
+        <v>24724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,51 +1859,51 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321048</v>
+        <v>314843</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694332</v>
+        <v>663971</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1939,46 +1912,46 @@
         <v>251</v>
       </c>
       <c r="D16" s="7">
-        <v>289309</v>
+        <v>281226</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>587</v>
       </c>
       <c r="I16" s="7">
-        <v>420725</v>
+        <v>468458</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>838</v>
       </c>
       <c r="N16" s="7">
-        <v>710034</v>
+        <v>749684</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,46 +1963,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>15195</v>
+        <v>14405</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>5446</v>
+        <v>5077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
       </c>
       <c r="N17" s="7">
-        <v>20642</v>
+        <v>19482</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,46 +2014,46 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>15495</v>
+        <v>14783</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>2385</v>
+        <v>2183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>17880</v>
+        <v>16966</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,51 +2065,51 @@
         <v>289</v>
       </c>
       <c r="D19" s="7">
-        <v>319999</v>
+        <v>310414</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>888</v>
       </c>
       <c r="N19" s="7">
-        <v>748555</v>
+        <v>786132</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2145,46 +2118,46 @@
         <v>242</v>
       </c>
       <c r="D20" s="7">
-        <v>170496</v>
+        <v>154964</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>467</v>
       </c>
       <c r="I20" s="7">
-        <v>219960</v>
+        <v>197829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>709</v>
       </c>
       <c r="N20" s="7">
-        <v>390456</v>
+        <v>352793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,46 +2169,46 @@
         <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>8523</v>
+        <v>7732</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
       </c>
       <c r="I21" s="7">
-        <v>5464</v>
+        <v>4927</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
       </c>
       <c r="N21" s="7">
-        <v>13988</v>
+        <v>12658</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2220,46 @@
         <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>16978</v>
+        <v>15371</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>6072</v>
+        <v>5518</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
       </c>
       <c r="N22" s="7">
-        <v>23050</v>
+        <v>20890</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,51 +2271,51 @@
         <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>195998</v>
+        <v>178067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>491</v>
       </c>
       <c r="I23" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>769</v>
       </c>
       <c r="N23" s="7">
-        <v>427494</v>
+        <v>386341</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2351,46 +2324,46 @@
         <v>328</v>
       </c>
       <c r="D24" s="7">
-        <v>251642</v>
+        <v>245191</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>451</v>
       </c>
       <c r="I24" s="7">
-        <v>270445</v>
+        <v>252220</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>779</v>
       </c>
       <c r="N24" s="7">
-        <v>522088</v>
+        <v>497412</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,46 +2375,46 @@
         <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>10789</v>
+        <v>10368</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2190</v>
+        <v>2042</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>12979</v>
+        <v>12411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,46 +2426,46 @@
         <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>14791</v>
+        <v>14076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>2987</v>
+        <v>2793</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
       </c>
       <c r="N26" s="7">
-        <v>17778</v>
+        <v>16869</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,51 +2477,51 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2557,46 +2530,46 @@
         <v>547</v>
       </c>
       <c r="D28" s="7">
-        <v>583246</v>
+        <v>581716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
         <v>923</v>
       </c>
       <c r="I28" s="7">
-        <v>783326</v>
+        <v>829938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>1470</v>
       </c>
       <c r="N28" s="7">
-        <v>1366572</v>
+        <v>1411654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,46 +2581,46 @@
         <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>24935</v>
+        <v>23911</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
       </c>
       <c r="I29" s="7">
-        <v>11869</v>
+        <v>10943</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
       </c>
       <c r="N29" s="7">
-        <v>36804</v>
+        <v>34855</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,46 +2632,46 @@
         <v>21</v>
       </c>
       <c r="D30" s="7">
-        <v>17335</v>
+        <v>16500</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
       </c>
       <c r="I30" s="7">
-        <v>8848</v>
+        <v>8220</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
       </c>
       <c r="N30" s="7">
-        <v>26183</v>
+        <v>24720</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,51 +2683,51 @@
         <v>596</v>
       </c>
       <c r="D31" s="7">
-        <v>625515</v>
+        <v>622127</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>959</v>
       </c>
       <c r="I31" s="7">
-        <v>804043</v>
+        <v>849102</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>1555</v>
       </c>
       <c r="N31" s="7">
-        <v>1429558</v>
+        <v>1471229</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2763,46 +2736,46 @@
         <v>567</v>
       </c>
       <c r="D32" s="7">
-        <v>652759</v>
+        <v>753115</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>996</v>
       </c>
       <c r="I32" s="7">
-        <v>812931</v>
+        <v>671410</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>1563</v>
       </c>
       <c r="N32" s="7">
-        <v>1465690</v>
+        <v>1424525</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,46 +2787,46 @@
         <v>25</v>
       </c>
       <c r="D33" s="7">
-        <v>28435</v>
+        <v>24309</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
       </c>
       <c r="I33" s="7">
-        <v>21229</v>
+        <v>17642</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="M33" s="7">
         <v>51</v>
       </c>
       <c r="N33" s="7">
-        <v>49665</v>
+        <v>41950</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,46 +2838,46 @@
         <v>169</v>
       </c>
       <c r="D34" s="7">
-        <v>177043</v>
+        <v>150293</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H34" s="7">
         <v>39</v>
       </c>
       <c r="I34" s="7">
-        <v>33632</v>
+        <v>28140</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>208</v>
       </c>
       <c r="N34" s="7">
-        <v>210675</v>
+        <v>178433</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,46 +2889,46 @@
         <v>761</v>
       </c>
       <c r="D35" s="7">
-        <v>858237</v>
+        <v>927717</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7">
         <v>1061</v>
       </c>
       <c r="I35" s="7">
-        <v>867793</v>
+        <v>717191</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M35" s="7">
         <v>1822</v>
       </c>
       <c r="N35" s="7">
-        <v>1726030</v>
+        <v>1644908</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,46 +2942,46 @@
         <v>2876</v>
       </c>
       <c r="D36" s="7">
-        <v>2923723</v>
+        <v>3034178</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
         <v>5163</v>
       </c>
       <c r="I36" s="7">
-        <v>3674887</v>
+        <v>3543453</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>8039</v>
       </c>
       <c r="N36" s="7">
-        <v>6598612</v>
+        <v>6577630</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,46 +2993,46 @@
         <v>165</v>
       </c>
       <c r="D37" s="7">
-        <v>164686</v>
+        <v>160392</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>105</v>
       </c>
       <c r="I37" s="7">
-        <v>68346</v>
+        <v>61456</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="M37" s="7">
         <v>270</v>
       </c>
       <c r="N37" s="7">
-        <v>233032</v>
+        <v>221848</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,46 +3044,46 @@
         <v>325</v>
       </c>
       <c r="D38" s="7">
-        <v>287817</v>
+        <v>256747</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H38" s="7">
         <v>91</v>
       </c>
       <c r="I38" s="7">
-        <v>62332</v>
+        <v>55007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M38" s="7">
         <v>416</v>
       </c>
       <c r="N38" s="7">
-        <v>350150</v>
+        <v>311754</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,51 +3095,51 @@
         <v>3366</v>
       </c>
       <c r="D39" s="7">
-        <v>3376226</v>
+        <v>3451317</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="7">
         <v>5359</v>
       </c>
       <c r="I39" s="7">
-        <v>3805566</v>
+        <v>3659916</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M39" s="7">
         <v>8725</v>
       </c>
       <c r="N39" s="7">
-        <v>7181794</v>
+        <v>7111232</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
